--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\자료이동1\10.RFCA mod deep block\Submission\PlosOne\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD15112-BA9E-4ABF-ADC4-31005C4F4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B371A3A5-48C5-4784-BF3D-A76A58F4192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7968" yWindow="48" windowWidth="27768" windowHeight="15240" xr2:uid="{E0726B98-C201-4C93-9632-DE0EE06DD6E0}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="30960" windowHeight="12660" xr2:uid="{E0726B98-C201-4C93-9632-DE0EE06DD6E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,18 +499,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸무게</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ASA class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -539,14 +527,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마취시간(min)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시술시간(min)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rocu CIV total dose</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -556,6 +536,26 @@
   </si>
   <si>
     <t>EKGRecur_g2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ane time(min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Op duration(min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,9 +692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1036,13 +1033,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643636A-12FD-40B3-A1BE-22875D44DBE4}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
     <col min="2" max="7" width="13.59765625" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.3984375" style="6" customWidth="1"/>
     <col min="9" max="15" width="13.59765625" style="6" customWidth="1"/>
@@ -1054,28 +1051,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -1084,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>3</v>
@@ -1101,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>60.6</v>
@@ -1900,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6">
         <v>71.900000000000006</v>
@@ -2041,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6">
         <v>68</v>
@@ -2182,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="6">
         <v>63</v>
@@ -2314,7 +2311,7 @@
       <c r="N27" s="5">
         <v>0</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +2363,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3357,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50" s="6">
         <v>53</v>
@@ -3498,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53" s="6">
         <v>55</v>
@@ -3686,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C57" s="6">
         <v>62.5</v>
@@ -3733,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C58" s="6">
         <v>62.3</v>
@@ -3936,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -4391,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72" s="6">
         <v>56.3</v>
@@ -4720,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C79" s="6">
         <v>72</v>
@@ -4767,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" s="6">
         <v>67.599999999999994</v>
@@ -5378,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C93" s="6">
         <v>76.3</v>
@@ -5425,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C94" s="6">
         <v>56.8</v>
